--- a/시장분석용_정보/시장분석용_4817044000.xlsx
+++ b/시장분석용_정보/시장분석용_4817044000.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="36">
   <si>
     <t>sim_cd</t>
   </si>
@@ -53,54 +53,6 @@
   </si>
   <si>
     <t>AVG_AMT</t>
-  </si>
-  <si>
-    <t>WK_RT</t>
-  </si>
-  <si>
-    <t>WE_RT</t>
-  </si>
-  <si>
-    <t>WK_1_RT</t>
-  </si>
-  <si>
-    <t>WK_2_RT</t>
-  </si>
-  <si>
-    <t>WK_3_RT</t>
-  </si>
-  <si>
-    <t>WK_4_RT</t>
-  </si>
-  <si>
-    <t>WK_5_RT</t>
-  </si>
-  <si>
-    <t>WK_6_RT</t>
-  </si>
-  <si>
-    <t>WK_7_RT</t>
-  </si>
-  <si>
-    <t>TIME_0510_RT</t>
-  </si>
-  <si>
-    <t>TIME_1114_RT</t>
-  </si>
-  <si>
-    <t>TIME_1517_RT</t>
-  </si>
-  <si>
-    <t>TIME_1819_RT</t>
-  </si>
-  <si>
-    <t>TIME_2021_RT</t>
-  </si>
-  <si>
-    <t>TIME_2224_RT</t>
-  </si>
-  <si>
-    <t>TIME_0104_RT</t>
   </si>
   <si>
     <t>F20_RT</t>
@@ -527,13 +479,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AV25"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:48">
+    <row r="1" spans="1:32">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,64 +579,16 @@
       <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
     </row>
-    <row r="2" spans="1:48">
+    <row r="2" spans="1:32">
       <c r="A2" s="1">
         <v>16399</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>202006</v>
@@ -696,10 +600,10 @@
         <v>1108230369</v>
       </c>
       <c r="G2" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <v>4817044000</v>
@@ -708,7 +612,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L2">
         <v>29086914</v>
@@ -720,117 +624,69 @@
         <v>71232</v>
       </c>
       <c r="O2">
-        <v>86.65000000000001</v>
+        <v>6.28</v>
       </c>
       <c r="P2">
-        <v>13.35</v>
+        <v>2.18</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>20.14</v>
       </c>
       <c r="R2">
-        <v>29.96</v>
+        <v>21.71</v>
       </c>
       <c r="S2">
-        <v>17.62</v>
+        <v>7.64</v>
       </c>
       <c r="T2">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>19.47</v>
+        <v>14.89</v>
       </c>
       <c r="V2">
-        <v>16.11</v>
+        <v>4.61</v>
       </c>
       <c r="W2">
-        <v>13.35</v>
+        <v>12.19</v>
       </c>
       <c r="X2">
-        <v>32.41</v>
+        <v>10.35</v>
       </c>
       <c r="Y2">
-        <v>33.68</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>32.41</v>
+        <v>2.18</v>
       </c>
       <c r="AA2">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0</v>
+        <v>15.84</v>
       </c>
       <c r="AC2">
-        <v>0</v>
+        <v>49.44</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>23.83</v>
       </c>
       <c r="AE2">
-        <v>6.28</v>
+        <v>4.59</v>
       </c>
       <c r="AF2">
-        <v>2.18</v>
-      </c>
-      <c r="AG2">
-        <v>20.14</v>
-      </c>
-      <c r="AH2">
-        <v>21.71</v>
-      </c>
-      <c r="AI2">
-        <v>7.64</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-      <c r="AK2">
-        <v>14.89</v>
-      </c>
-      <c r="AL2">
-        <v>4.61</v>
-      </c>
-      <c r="AM2">
-        <v>12.19</v>
-      </c>
-      <c r="AN2">
-        <v>10.35</v>
-      </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>2.18</v>
-      </c>
-      <c r="AQ2">
-        <v>0</v>
-      </c>
-      <c r="AR2">
-        <v>15.84</v>
-      </c>
-      <c r="AS2">
-        <v>49.44</v>
-      </c>
-      <c r="AT2">
-        <v>23.83</v>
-      </c>
-      <c r="AU2">
-        <v>4.59</v>
-      </c>
-      <c r="AV2">
         <v>4.12</v>
       </c>
     </row>
-    <row r="3" spans="1:48">
+    <row r="3" spans="1:32">
       <c r="A3" s="1">
         <v>19174</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>202007</v>
@@ -842,10 +698,10 @@
         <v>1108230369</v>
       </c>
       <c r="G3" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I3">
         <v>4817044000</v>
@@ -854,7 +710,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K3" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L3">
         <v>65083555</v>
@@ -866,117 +722,69 @@
         <v>83161</v>
       </c>
       <c r="O3">
-        <v>93.31</v>
+        <v>10.69</v>
       </c>
       <c r="P3">
-        <v>6.69</v>
+        <v>7.02</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>30.49</v>
       </c>
       <c r="R3">
-        <v>10.6</v>
+        <v>15.53</v>
       </c>
       <c r="S3">
-        <v>38.36</v>
+        <v>2.02</v>
       </c>
       <c r="T3">
-        <v>13.61</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>13.53</v>
+        <v>8.06</v>
       </c>
       <c r="V3">
-        <v>17.21</v>
+        <v>16.05</v>
       </c>
       <c r="W3">
-        <v>6.69</v>
+        <v>0.73</v>
       </c>
       <c r="X3">
-        <v>33.06</v>
+        <v>9.43</v>
       </c>
       <c r="Y3">
-        <v>32.39</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>34.55</v>
+        <v>0</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>7.53</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>59.71</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>21.07</v>
       </c>
       <c r="AE3">
-        <v>10.69</v>
+        <v>7.56</v>
       </c>
       <c r="AF3">
-        <v>7.02</v>
-      </c>
-      <c r="AG3">
-        <v>30.49</v>
-      </c>
-      <c r="AH3">
-        <v>15.53</v>
-      </c>
-      <c r="AI3">
-        <v>2.02</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-      <c r="AK3">
-        <v>8.06</v>
-      </c>
-      <c r="AL3">
-        <v>16.05</v>
-      </c>
-      <c r="AM3">
-        <v>0.73</v>
-      </c>
-      <c r="AN3">
-        <v>9.43</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>7.53</v>
-      </c>
-      <c r="AS3">
-        <v>59.71</v>
-      </c>
-      <c r="AT3">
-        <v>21.07</v>
-      </c>
-      <c r="AU3">
-        <v>7.56</v>
-      </c>
-      <c r="AV3">
         <v>4.13</v>
       </c>
     </row>
-    <row r="4" spans="1:48">
+    <row r="4" spans="1:32">
       <c r="A4" s="1">
         <v>21951</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>202008</v>
@@ -988,10 +796,10 @@
         <v>1108230369</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I4">
         <v>4817044000</v>
@@ -1000,7 +808,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K4" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L4">
         <v>169053932</v>
@@ -1012,117 +820,69 @@
         <v>180459</v>
       </c>
       <c r="O4">
-        <v>73.20999999999999</v>
+        <v>5.12</v>
       </c>
       <c r="P4">
-        <v>26.79</v>
+        <v>10.34</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>21.37</v>
       </c>
       <c r="R4">
-        <v>17.04</v>
+        <v>1.92</v>
       </c>
       <c r="S4">
-        <v>19.46</v>
+        <v>2.79</v>
       </c>
       <c r="T4">
-        <v>2.41</v>
+        <v>0.44</v>
       </c>
       <c r="U4">
-        <v>11.09</v>
+        <v>4.98</v>
       </c>
       <c r="V4">
-        <v>28.83</v>
+        <v>7.31</v>
       </c>
       <c r="W4">
-        <v>21.17</v>
+        <v>27.13</v>
       </c>
       <c r="X4">
-        <v>35.27</v>
+        <v>18.61</v>
       </c>
       <c r="Y4">
-        <v>31.59</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>32.9</v>
+        <v>5.79</v>
       </c>
       <c r="AA4">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>53.96</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>16.12</v>
       </c>
       <c r="AE4">
-        <v>5.12</v>
+        <v>5.75</v>
       </c>
       <c r="AF4">
-        <v>10.34</v>
-      </c>
-      <c r="AG4">
-        <v>21.37</v>
-      </c>
-      <c r="AH4">
-        <v>1.92</v>
-      </c>
-      <c r="AI4">
-        <v>2.79</v>
-      </c>
-      <c r="AJ4">
-        <v>0.44</v>
-      </c>
-      <c r="AK4">
-        <v>4.98</v>
-      </c>
-      <c r="AL4">
-        <v>7.31</v>
-      </c>
-      <c r="AM4">
-        <v>27.13</v>
-      </c>
-      <c r="AN4">
-        <v>18.61</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>5.79</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>6.05</v>
-      </c>
-      <c r="AS4">
-        <v>53.96</v>
-      </c>
-      <c r="AT4">
-        <v>16.12</v>
-      </c>
-      <c r="AU4">
-        <v>5.75</v>
-      </c>
-      <c r="AV4">
         <v>12.33</v>
       </c>
     </row>
-    <row r="5" spans="1:48">
+    <row r="5" spans="1:32">
       <c r="A5" s="1">
         <v>22197</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>202009</v>
@@ -1134,10 +894,10 @@
         <v>1108230369</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I5">
         <v>4817044000</v>
@@ -1146,7 +906,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K5" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <v>141695697</v>
@@ -1158,117 +918,69 @@
         <v>70250.7174020823</v>
       </c>
       <c r="O5">
-        <v>83.61010678926968</v>
+        <v>3.824033650083248</v>
       </c>
       <c r="P5">
-        <v>16.38989321073032</v>
+        <v>10.83369672136198</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>7.140323151732689</v>
       </c>
       <c r="R5">
-        <v>11.54719178522408</v>
+        <v>14.66492772451657</v>
       </c>
       <c r="S5">
-        <v>22.03595985409494</v>
+        <v>13.61969433715408</v>
       </c>
       <c r="T5">
-        <v>19.03336892975656</v>
+        <v>1.59275296419199</v>
       </c>
       <c r="U5">
-        <v>8.170650015363558</v>
+        <v>9.600508248320343</v>
       </c>
       <c r="V5">
-        <v>22.83293620483055</v>
+        <v>9.793587148168656</v>
       </c>
       <c r="W5">
-        <v>16.38989321073032</v>
+        <v>18.08069148895891</v>
       </c>
       <c r="X5">
-        <v>29.91237456187537</v>
+        <v>10.8504548536855</v>
       </c>
       <c r="Y5">
-        <v>38.47374640409863</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>29.55007459541978</v>
+        <v>2.097915468032879</v>
       </c>
       <c r="AA5">
-        <v>2.073134150432246</v>
+        <v>0</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>14.94092162841049</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>46.99295369371732</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>16.69302457723892</v>
       </c>
       <c r="AE5">
-        <v>3.824033650083248</v>
+        <v>13.06159655645718</v>
       </c>
       <c r="AF5">
-        <v>10.83369672136198</v>
-      </c>
-      <c r="AG5">
-        <v>7.140323151732689</v>
-      </c>
-      <c r="AH5">
-        <v>14.66492772451657</v>
-      </c>
-      <c r="AI5">
-        <v>13.61969433715408</v>
-      </c>
-      <c r="AJ5">
-        <v>1.59275296419199</v>
-      </c>
-      <c r="AK5">
-        <v>9.600508248320343</v>
-      </c>
-      <c r="AL5">
-        <v>9.793587148168656</v>
-      </c>
-      <c r="AM5">
-        <v>18.08069148895891</v>
-      </c>
-      <c r="AN5">
-        <v>10.8504548536855</v>
-      </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>2.097915468032879</v>
-      </c>
-      <c r="AQ5">
-        <v>0</v>
-      </c>
-      <c r="AR5">
-        <v>14.94092162841049</v>
-      </c>
-      <c r="AS5">
-        <v>46.99295369371732</v>
-      </c>
-      <c r="AT5">
-        <v>16.69302457723892</v>
-      </c>
-      <c r="AU5">
-        <v>13.06159655645718</v>
-      </c>
-      <c r="AV5">
         <v>6.204258364317162</v>
       </c>
     </row>
-    <row r="6" spans="1:48">
+    <row r="6" spans="1:32">
       <c r="A6" s="1">
         <v>24986</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>202010</v>
@@ -1280,10 +992,10 @@
         <v>1108230369</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I6">
         <v>4817044000</v>
@@ -1292,7 +1004,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K6" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L6">
         <v>130455695</v>
@@ -1304,117 +1016,69 @@
         <v>71131.78571428571</v>
       </c>
       <c r="O6">
-        <v>75.054634845263</v>
+        <v>3.237555091941367</v>
       </c>
       <c r="P6">
-        <v>24.94536515473701</v>
+        <v>22.31804502333149</v>
       </c>
       <c r="Q6">
-        <v>15.04333477032183</v>
+        <v>13.61510797071757</v>
       </c>
       <c r="R6">
-        <v>21.66293705261392</v>
+        <v>15.64592728949089</v>
       </c>
       <c r="S6">
-        <v>15.74934454498134</v>
+        <v>7.075459581584384</v>
       </c>
       <c r="T6">
-        <v>7.824179079035224</v>
+        <v>0.8974959368389398</v>
       </c>
       <c r="U6">
-        <v>14.18743136418844</v>
+        <v>10.43448181660448</v>
       </c>
       <c r="V6">
-        <v>15.84877102184002</v>
+        <v>13.87439446717907</v>
       </c>
       <c r="W6">
-        <v>9.693487245689045</v>
+        <v>5.083604449311315</v>
       </c>
       <c r="X6">
-        <v>38.72032717421804</v>
+        <v>7.808958215660879</v>
       </c>
       <c r="Y6">
-        <v>47.24015844620658</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>13.08152143392437</v>
+        <v>10.07559956198156</v>
       </c>
       <c r="AA6">
-        <v>0.9674780243208241</v>
+        <v>0</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>8.942364636055176</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>36.58868908996268</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>27.05958436977397</v>
       </c>
       <c r="AE6">
-        <v>3.237555091941367</v>
+        <v>10.11670536567989</v>
       </c>
       <c r="AF6">
-        <v>22.31804502333149</v>
-      </c>
-      <c r="AG6">
-        <v>13.61510797071757</v>
-      </c>
-      <c r="AH6">
-        <v>15.64592728949089</v>
-      </c>
-      <c r="AI6">
-        <v>7.075459581584384</v>
-      </c>
-      <c r="AJ6">
-        <v>0.8974959368389398</v>
-      </c>
-      <c r="AK6">
-        <v>10.43448181660448</v>
-      </c>
-      <c r="AL6">
-        <v>13.87439446717907</v>
-      </c>
-      <c r="AM6">
-        <v>5.083604449311315</v>
-      </c>
-      <c r="AN6">
-        <v>7.808958215660879</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>10.07559956198156</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>8.942364636055176</v>
-      </c>
-      <c r="AS6">
-        <v>36.58868908996268</v>
-      </c>
-      <c r="AT6">
-        <v>27.05958436977397</v>
-      </c>
-      <c r="AU6">
-        <v>10.11670536567989</v>
-      </c>
-      <c r="AV6">
         <v>7.226027133886335</v>
       </c>
     </row>
-    <row r="7" spans="1:48">
+    <row r="7" spans="1:32">
       <c r="A7" s="1">
         <v>27780</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>202011</v>
@@ -1426,10 +1090,10 @@
         <v>1108230369</v>
       </c>
       <c r="G7" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I7">
         <v>4817044000</v>
@@ -1438,7 +1102,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K7" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L7">
         <v>87980200</v>
@@ -1450,117 +1114,69 @@
         <v>67781.35593220338</v>
       </c>
       <c r="O7">
-        <v>93.93364524120199</v>
+        <v>6.102587989456719</v>
       </c>
       <c r="P7">
-        <v>6.066354758798002</v>
+        <v>2.101954320290247</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1.978434343068099</v>
       </c>
       <c r="R7">
-        <v>16.71143491160511</v>
+        <v>43.45262660371311</v>
       </c>
       <c r="S7">
-        <v>14.69235402795175</v>
+        <v>10.21878431056078</v>
       </c>
       <c r="T7">
-        <v>17.64269477825692</v>
+        <v>0.6653361621137485</v>
       </c>
       <c r="U7">
-        <v>36.16930371924592</v>
+        <v>2.355848221531663</v>
       </c>
       <c r="V7">
-        <v>8.717857804142296</v>
+        <v>13.47261373229431</v>
       </c>
       <c r="W7">
-        <v>6.066354758798002</v>
+        <v>19.06012339605957</v>
       </c>
       <c r="X7">
-        <v>64.39771410578744</v>
+        <v>0.5927997807461225</v>
       </c>
       <c r="Y7">
-        <v>19.23058023396173</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>14.69426782526068</v>
+        <v>0.516748944307924</v>
       </c>
       <c r="AA7">
-        <v>1.677437834990146</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>18.3419396217558</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>32.65528642194494</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>35.48606923000857</v>
       </c>
       <c r="AE7">
-        <v>6.102587989456719</v>
+        <v>3.254157300619912</v>
       </c>
       <c r="AF7">
-        <v>2.101954320290247</v>
-      </c>
-      <c r="AG7">
-        <v>1.978434343068099</v>
-      </c>
-      <c r="AH7">
-        <v>43.45262660371311</v>
-      </c>
-      <c r="AI7">
-        <v>10.21878431056078</v>
-      </c>
-      <c r="AJ7">
-        <v>0.6653361621137485</v>
-      </c>
-      <c r="AK7">
-        <v>2.355848221531663</v>
-      </c>
-      <c r="AL7">
-        <v>13.47261373229431</v>
-      </c>
-      <c r="AM7">
-        <v>19.06012339605957</v>
-      </c>
-      <c r="AN7">
-        <v>0.5927997807461225</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0.516748944307924</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>18.3419396217558</v>
-      </c>
-      <c r="AS7">
-        <v>32.65528642194494</v>
-      </c>
-      <c r="AT7">
-        <v>35.48606923000857</v>
-      </c>
-      <c r="AU7">
-        <v>3.254157300619912</v>
-      </c>
-      <c r="AV7">
         <v>9.744689621528481</v>
       </c>
     </row>
-    <row r="8" spans="1:48">
+    <row r="8" spans="1:32">
       <c r="A8" s="1">
         <v>30577</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>202012</v>
@@ -1572,10 +1188,10 @@
         <v>1108230369</v>
       </c>
       <c r="G8" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I8">
         <v>4817044000</v>
@@ -1584,7 +1200,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K8" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L8">
         <v>81261066</v>
@@ -1596,117 +1212,69 @@
         <v>50099.30086313194</v>
       </c>
       <c r="O8">
-        <v>89.13869627700922</v>
+        <v>5.863681465611096</v>
       </c>
       <c r="P8">
-        <v>10.86130372299079</v>
+        <v>9.101915099661625</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1.636144864995987</v>
       </c>
       <c r="R8">
-        <v>14.88715228618832</v>
+        <v>21.57212426920415</v>
       </c>
       <c r="S8">
-        <v>19.37662187916658</v>
+        <v>17.66481180446242</v>
       </c>
       <c r="T8">
-        <v>8.225294981239847</v>
+        <v>0.4942831581854956</v>
       </c>
       <c r="U8">
-        <v>29.85303458879065</v>
+        <v>6.466063014974477</v>
       </c>
       <c r="V8">
-        <v>16.79659254162381</v>
+        <v>10.6482958306257</v>
       </c>
       <c r="W8">
-        <v>10.86130372299079</v>
+        <v>26.21712206827314</v>
       </c>
       <c r="X8">
-        <v>34.35255581387525</v>
+        <v>0.3264892774111528</v>
       </c>
       <c r="Y8">
-        <v>30.1741256207493</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>33.79286648688561</v>
+        <v>3.540691465947542</v>
       </c>
       <c r="AA8">
-        <v>1.680452078489839</v>
+        <v>0</v>
       </c>
       <c r="AB8">
-        <v>0</v>
+        <v>16.59535629744261</v>
       </c>
       <c r="AC8">
-        <v>0</v>
+        <v>50.92121659073485</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>14.44648927741115</v>
       </c>
       <c r="AE8">
-        <v>5.863681465611096</v>
+        <v>0.2267286648688562</v>
       </c>
       <c r="AF8">
-        <v>9.101915099661625</v>
-      </c>
-      <c r="AG8">
-        <v>1.636144864995987</v>
-      </c>
-      <c r="AH8">
-        <v>21.57212426920415</v>
-      </c>
-      <c r="AI8">
-        <v>17.66481180446242</v>
-      </c>
-      <c r="AJ8">
-        <v>0.4942831581854956</v>
-      </c>
-      <c r="AK8">
-        <v>6.466063014974477</v>
-      </c>
-      <c r="AL8">
-        <v>10.6482958306257</v>
-      </c>
-      <c r="AM8">
-        <v>26.21712206827314</v>
-      </c>
-      <c r="AN8">
-        <v>0.3264892774111528</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>3.540691465947542</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>16.59535629744261</v>
-      </c>
-      <c r="AS8">
-        <v>50.92121659073485</v>
-      </c>
-      <c r="AT8">
-        <v>14.44648927741115</v>
-      </c>
-      <c r="AU8">
-        <v>0.2267286648688562</v>
-      </c>
-      <c r="AV8">
         <v>14.27765599678449</v>
       </c>
     </row>
-    <row r="9" spans="1:48">
+    <row r="9" spans="1:32">
       <c r="A9" s="1">
         <v>33376</v>
       </c>
       <c r="B9" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>202101</v>
@@ -1718,10 +1286,10 @@
         <v>1108230369</v>
       </c>
       <c r="G9" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I9">
         <v>4817044000</v>
@@ -1730,7 +1298,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L9">
         <v>91666527</v>
@@ -1742,117 +1310,69 @@
         <v>54824.4778708134</v>
       </c>
       <c r="O9">
-        <v>91.23629521570071</v>
+        <v>2.493186017290696</v>
       </c>
       <c r="P9">
-        <v>8.763704784299289</v>
+        <v>9.880941430561672</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>13.38596942665887</v>
       </c>
       <c r="R9">
-        <v>21.25872679096918</v>
+        <v>6.695556654611775</v>
       </c>
       <c r="S9">
-        <v>16.76411546899775</v>
+        <v>18.26852991092375</v>
       </c>
       <c r="T9">
-        <v>18.8330581519686</v>
+        <v>2.736603036460627</v>
       </c>
       <c r="U9">
-        <v>15.04806817978388</v>
+        <v>3.544018594486513</v>
       </c>
       <c r="V9">
-        <v>19.31412354577369</v>
+        <v>17.85363186749728</v>
       </c>
       <c r="W9">
-        <v>8.763704784299289</v>
+        <v>22.78758144726046</v>
       </c>
       <c r="X9">
-        <v>21.16364280267758</v>
+        <v>2.353083153352149</v>
       </c>
       <c r="Y9">
-        <v>46.28450428333561</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>31.69630823822964</v>
+        <v>0.1365660562224638</v>
       </c>
       <c r="AA9">
-        <v>0.86464621486096</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>15.45801114391516</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>53.45746660446731</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>18.93023386028359</v>
       </c>
       <c r="AE9">
-        <v>2.493186017290696</v>
+        <v>4.208601784051445</v>
       </c>
       <c r="AF9">
-        <v>9.880941430561672</v>
-      </c>
-      <c r="AG9">
-        <v>13.38596942665887</v>
-      </c>
-      <c r="AH9">
-        <v>6.695556654611775</v>
-      </c>
-      <c r="AI9">
-        <v>18.26852991092375</v>
-      </c>
-      <c r="AJ9">
-        <v>2.736603036460627</v>
-      </c>
-      <c r="AK9">
-        <v>3.544018594486513</v>
-      </c>
-      <c r="AL9">
-        <v>17.85363186749728</v>
-      </c>
-      <c r="AM9">
-        <v>22.78758144726046</v>
-      </c>
-      <c r="AN9">
-        <v>2.353083153352149</v>
-      </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0.1365660562224638</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>15.45801114391516</v>
-      </c>
-      <c r="AS9">
-        <v>53.45746660446731</v>
-      </c>
-      <c r="AT9">
-        <v>18.93023386028359</v>
-      </c>
-      <c r="AU9">
-        <v>4.208601784051445</v>
-      </c>
-      <c r="AV9">
         <v>7.80912055106004</v>
       </c>
     </row>
-    <row r="10" spans="1:48">
+    <row r="10" spans="1:32">
       <c r="A10" s="1">
         <v>36178</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>202102</v>
@@ -1864,10 +1384,10 @@
         <v>1108230369</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I10">
         <v>4817044000</v>
@@ -1876,7 +1396,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K10" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L10">
         <v>104491428</v>
@@ -1888,117 +1408,69 @@
         <v>67283.59819703799</v>
       </c>
       <c r="O10">
-        <v>91.15263557772414</v>
+        <v>4.760337422510869</v>
       </c>
       <c r="P10">
-        <v>8.847364422275863</v>
+        <v>5.107948910986268</v>
       </c>
       <c r="Q10">
-        <v>2.760540216179264</v>
+        <v>5.100082260910435</v>
       </c>
       <c r="R10">
-        <v>19.18872334159315</v>
+        <v>9.300892585179332</v>
       </c>
       <c r="S10">
-        <v>14.45563190331747</v>
+        <v>23.50362955973766</v>
       </c>
       <c r="T10">
-        <v>33.4895169081238</v>
+        <v>0.8384975060346574</v>
       </c>
       <c r="U10">
-        <v>6.384503008993235</v>
+        <v>2.008411055689659</v>
       </c>
       <c r="V10">
-        <v>17.63426041569649</v>
+        <v>30.52276867878579</v>
       </c>
       <c r="W10">
-        <v>6.0868242060966</v>
+        <v>18.7640600002136</v>
       </c>
       <c r="X10">
-        <v>33.70658161279987</v>
+        <v>0.09263557772413639</v>
       </c>
       <c r="Y10">
-        <v>37.45904191164848</v>
+        <v>0.04860518702069992</v>
       </c>
       <c r="Z10">
-        <v>27.36147078973789</v>
+        <v>2.682325386537928</v>
       </c>
       <c r="AA10">
-        <v>1.472905685813769</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>16.6275436071177</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>31.78619753957233</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>17.44651192019311</v>
       </c>
       <c r="AE10">
-        <v>4.760337422510869</v>
+        <v>4.529879750710268</v>
       </c>
       <c r="AF10">
-        <v>5.107948910986268</v>
-      </c>
-      <c r="AG10">
-        <v>5.100082260910435</v>
-      </c>
-      <c r="AH10">
-        <v>9.300892585179332</v>
-      </c>
-      <c r="AI10">
-        <v>23.50362955973766</v>
-      </c>
-      <c r="AJ10">
-        <v>0.8384975060346574</v>
-      </c>
-      <c r="AK10">
-        <v>2.008411055689659</v>
-      </c>
-      <c r="AL10">
-        <v>30.52276867878579</v>
-      </c>
-      <c r="AM10">
-        <v>18.7640600002136</v>
-      </c>
-      <c r="AN10">
-        <v>0.09263557772413639</v>
-      </c>
-      <c r="AO10">
-        <v>0.04860518702069992</v>
-      </c>
-      <c r="AP10">
-        <v>2.682325386537928</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>16.6275436071177</v>
-      </c>
-      <c r="AS10">
-        <v>31.78619753957233</v>
-      </c>
-      <c r="AT10">
-        <v>17.44651192019311</v>
-      </c>
-      <c r="AU10">
-        <v>4.529879750710268</v>
-      </c>
-      <c r="AV10">
         <v>26.88820016662037</v>
       </c>
     </row>
-    <row r="11" spans="1:48">
+    <row r="11" spans="1:32">
       <c r="A11" s="1">
         <v>38969</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>202103</v>
@@ -2010,10 +1482,10 @@
         <v>1108230369</v>
       </c>
       <c r="G11" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I11">
         <v>4817044000</v>
@@ -2022,7 +1494,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K11" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L11">
         <v>106779258</v>
@@ -2034,117 +1506,69 @@
         <v>57469.99892357374</v>
       </c>
       <c r="O11">
-        <v>81.77111713597037</v>
+        <v>5.485818296283722</v>
       </c>
       <c r="P11">
-        <v>18.22888286402964</v>
+        <v>6.458549815358334</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>4.049765832986028</v>
       </c>
       <c r="R11">
-        <v>7.182002943773968</v>
+        <v>7.785165104912041</v>
       </c>
       <c r="S11">
-        <v>16.70777166807059</v>
+        <v>7.547560736468125</v>
       </c>
       <c r="T11">
-        <v>5.179492423425531</v>
+        <v>1.035261147722154</v>
       </c>
       <c r="U11">
-        <v>31.38741667225295</v>
+        <v>3.814541088963177</v>
       </c>
       <c r="V11">
-        <v>21.30512870121274</v>
+        <v>17.60117522449912</v>
       </c>
       <c r="W11">
-        <v>18.22888286402964</v>
+        <v>16.98073012588269</v>
       </c>
       <c r="X11">
-        <v>31.87634471884043</v>
+        <v>29.24212789969004</v>
       </c>
       <c r="Y11">
-        <v>50.34719567352678</v>
+        <v>0.0465832752836698</v>
       </c>
       <c r="Z11">
-        <v>17.05069088333616</v>
+        <v>0.1263767331104698</v>
       </c>
       <c r="AA11">
-        <v>0.7257687242966233</v>
+        <v>0</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>16.0110154154658</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>19.39999277172351</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>41.5498907889021</v>
       </c>
       <c r="AE11">
-        <v>5.485818296283722</v>
+        <v>0.3172945551841164</v>
       </c>
       <c r="AF11">
-        <v>6.458549815358334</v>
-      </c>
-      <c r="AG11">
-        <v>4.049765832986028</v>
-      </c>
-      <c r="AH11">
-        <v>7.785165104912041</v>
-      </c>
-      <c r="AI11">
-        <v>7.547560736468125</v>
-      </c>
-      <c r="AJ11">
-        <v>1.035261147722154</v>
-      </c>
-      <c r="AK11">
-        <v>3.814541088963177</v>
-      </c>
-      <c r="AL11">
-        <v>17.60117522449912</v>
-      </c>
-      <c r="AM11">
-        <v>16.98073012588269</v>
-      </c>
-      <c r="AN11">
-        <v>29.24212789969004</v>
-      </c>
-      <c r="AO11">
-        <v>0.0465832752836698</v>
-      </c>
-      <c r="AP11">
-        <v>0.1263767331104698</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>16.0110154154658</v>
-      </c>
-      <c r="AS11">
-        <v>19.39999277172351</v>
-      </c>
-      <c r="AT11">
-        <v>41.5498907889021</v>
-      </c>
-      <c r="AU11">
-        <v>0.3172945551841164</v>
-      </c>
-      <c r="AV11">
         <v>22.52954173309577</v>
       </c>
     </row>
-    <row r="12" spans="1:48">
+    <row r="12" spans="1:32">
       <c r="A12" s="1">
         <v>41774</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D12">
         <v>202104</v>
@@ -2156,10 +1580,10 @@
         <v>1108230369</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I12">
         <v>4817044000</v>
@@ -2168,7 +1592,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K12" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L12">
         <v>81243034</v>
@@ -2180,117 +1604,69 @@
         <v>51714.21642266073</v>
       </c>
       <c r="O12">
-        <v>80.91474807587811</v>
+        <v>6.572872186924974</v>
       </c>
       <c r="P12">
-        <v>19.08525192412189</v>
+        <v>1.519203728162097</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>7.633370588178674</v>
       </c>
       <c r="R12">
-        <v>10.50954688964472</v>
+        <v>10.76760271139062</v>
       </c>
       <c r="S12">
-        <v>38.06107840667299</v>
+        <v>47.82883938394029</v>
       </c>
       <c r="T12">
-        <v>7.663143427779913</v>
+        <v>1.521145485531719</v>
       </c>
       <c r="U12">
-        <v>13.12348961536813</v>
+        <v>3.505427741411037</v>
       </c>
       <c r="V12">
-        <v>11.56680401866823</v>
+        <v>9.745084579928417</v>
       </c>
       <c r="W12">
-        <v>19.08525192412189</v>
+        <v>7.496968941977229</v>
       </c>
       <c r="X12">
-        <v>29.09531597687502</v>
+        <v>3.410170370299071</v>
       </c>
       <c r="Y12">
-        <v>54.79765708060582</v>
+        <v>0.2433144033001033</v>
       </c>
       <c r="Z12">
-        <v>15.2214844104665</v>
+        <v>1.720061631868647</v>
       </c>
       <c r="AA12">
-        <v>0.8941710965644143</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>38.77748489464339</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>18.67486165607749</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>27.18205110102117</v>
       </c>
       <c r="AE12">
-        <v>6.572872186924974</v>
+        <v>0.05588569353527589</v>
       </c>
       <c r="AF12">
-        <v>1.519203728162097</v>
-      </c>
-      <c r="AG12">
-        <v>7.633370588178674</v>
-      </c>
-      <c r="AH12">
-        <v>10.76760271139062</v>
-      </c>
-      <c r="AI12">
-        <v>47.82883938394029</v>
-      </c>
-      <c r="AJ12">
-        <v>1.521145485531719</v>
-      </c>
-      <c r="AK12">
-        <v>3.505427741411037</v>
-      </c>
-      <c r="AL12">
-        <v>9.745084579928417</v>
-      </c>
-      <c r="AM12">
-        <v>7.496968941977229</v>
-      </c>
-      <c r="AN12">
-        <v>3.410170370299071</v>
-      </c>
-      <c r="AO12">
-        <v>0.2433144033001033</v>
-      </c>
-      <c r="AP12">
-        <v>1.720061631868647</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>38.77748489464339</v>
-      </c>
-      <c r="AS12">
-        <v>18.67486165607749</v>
-      </c>
-      <c r="AT12">
-        <v>27.18205110102117</v>
-      </c>
-      <c r="AU12">
-        <v>0.05588569353527589</v>
-      </c>
-      <c r="AV12">
         <v>13.3556549018098</v>
       </c>
     </row>
-    <row r="13" spans="1:48">
+    <row r="13" spans="1:32">
       <c r="A13" s="1">
         <v>44586</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D13">
         <v>202105</v>
@@ -2302,10 +1678,10 @@
         <v>1108230369</v>
       </c>
       <c r="G13" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I13">
         <v>4817044000</v>
@@ -2314,7 +1690,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K13" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L13">
         <v>101886132</v>
@@ -2326,117 +1702,69 @@
         <v>84342.82450331126</v>
       </c>
       <c r="O13">
-        <v>65.21715300056734</v>
+        <v>4.210014517382994</v>
       </c>
       <c r="P13">
-        <v>34.78284699943266</v>
+        <v>3.510157608888322</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.9820376994977098</v>
       </c>
       <c r="R13">
-        <v>8.375285979842676</v>
+        <v>10.74210594391786</v>
       </c>
       <c r="S13">
-        <v>8.698456247215274</v>
+        <v>7.104306136580001</v>
       </c>
       <c r="T13">
-        <v>2.125385112863054</v>
+        <v>0.447622661345118</v>
       </c>
       <c r="U13">
-        <v>9.937183889167565</v>
+        <v>4.707123830356029</v>
       </c>
       <c r="V13">
-        <v>36.08044365645366</v>
+        <v>36.24280475933664</v>
       </c>
       <c r="W13">
-        <v>34.78284699943266</v>
+        <v>23.50550378298785</v>
       </c>
       <c r="X13">
-        <v>54.71615217270197</v>
+        <v>8.557924944682364</v>
       </c>
       <c r="Y13">
-        <v>28.30890306955612</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>16.98454664271679</v>
+        <v>0.9409538389385516</v>
       </c>
       <c r="AA13">
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>9.23514777261345</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>44.7291079382619</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>28.93430455363641</v>
       </c>
       <c r="AE13">
-        <v>4.210014517382994</v>
+        <v>8.23932890729427</v>
       </c>
       <c r="AF13">
-        <v>3.510157608888322</v>
-      </c>
-      <c r="AG13">
-        <v>0.9820376994977098</v>
-      </c>
-      <c r="AH13">
-        <v>10.74210594391786</v>
-      </c>
-      <c r="AI13">
-        <v>7.104306136580001</v>
-      </c>
-      <c r="AJ13">
-        <v>0.447622661345118</v>
-      </c>
-      <c r="AK13">
-        <v>4.707123830356029</v>
-      </c>
-      <c r="AL13">
-        <v>36.24280475933664</v>
-      </c>
-      <c r="AM13">
-        <v>23.50550378298785</v>
-      </c>
-      <c r="AN13">
-        <v>8.557924944682364</v>
-      </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0.9409538389385516</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>9.23514777261345</v>
-      </c>
-      <c r="AS13">
-        <v>44.7291079382619</v>
-      </c>
-      <c r="AT13">
-        <v>28.93430455363641</v>
-      </c>
-      <c r="AU13">
-        <v>8.23932890729427</v>
-      </c>
-      <c r="AV13">
         <v>7.921555104280531</v>
       </c>
     </row>
-    <row r="14" spans="1:48">
+    <row r="14" spans="1:32">
       <c r="A14" s="1">
         <v>47400</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>202106</v>
@@ -2448,10 +1776,10 @@
         <v>1108230369</v>
       </c>
       <c r="G14" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I14">
         <v>4817044000</v>
@@ -2460,7 +1788,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L14">
         <v>82587502</v>
@@ -2472,117 +1800,69 @@
         <v>79411.05961538461</v>
       </c>
       <c r="O14">
-        <v>94.99167072143676</v>
+        <v>3.273831306581957</v>
       </c>
       <c r="P14">
-        <v>5.008329278563239</v>
+        <v>6.258657220556203</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>5.717880319227963</v>
       </c>
       <c r="R14">
-        <v>13.77055037237959</v>
+        <v>3.112151762260591</v>
       </c>
       <c r="S14">
-        <v>12.33783014771412</v>
+        <v>43.79731853967444</v>
       </c>
       <c r="T14">
-        <v>18.57507525727076</v>
+        <v>1.194063004109266</v>
       </c>
       <c r="U14">
-        <v>44.34731078680645</v>
+        <v>11.59635752804341</v>
       </c>
       <c r="V14">
-        <v>5.961382613800328</v>
+        <v>8.274221271518782</v>
       </c>
       <c r="W14">
-        <v>5.008329278563239</v>
+        <v>14.46322452409325</v>
       </c>
       <c r="X14">
-        <v>16.61672788868224</v>
+        <v>2.321816067399641</v>
       </c>
       <c r="Y14">
-        <v>49.27453629206511</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>33.26131845082323</v>
+        <v>1.55430352452118</v>
       </c>
       <c r="AA14">
-        <v>0.8474173684294265</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>39.38554596093729</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>27.41678064448541</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>9.233682306313128</v>
       </c>
       <c r="AE14">
-        <v>3.273831306581957</v>
+        <v>7.622730561822781</v>
       </c>
       <c r="AF14">
-        <v>6.258657220556203</v>
-      </c>
-      <c r="AG14">
-        <v>5.717880319227963</v>
-      </c>
-      <c r="AH14">
-        <v>3.112151762260591</v>
-      </c>
-      <c r="AI14">
-        <v>43.79731853967444</v>
-      </c>
-      <c r="AJ14">
-        <v>1.194063004109266</v>
-      </c>
-      <c r="AK14">
-        <v>11.59635752804341</v>
-      </c>
-      <c r="AL14">
-        <v>8.274221271518782</v>
-      </c>
-      <c r="AM14">
-        <v>14.46322452409325</v>
-      </c>
-      <c r="AN14">
-        <v>2.321816067399641</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>1.55430352452118</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>39.38554596093729</v>
-      </c>
-      <c r="AS14">
-        <v>27.41678064448541</v>
-      </c>
-      <c r="AT14">
-        <v>9.233682306313128</v>
-      </c>
-      <c r="AU14">
-        <v>7.622730561822781</v>
-      </c>
-      <c r="AV14">
         <v>14.78695700192022</v>
       </c>
     </row>
-    <row r="15" spans="1:48">
+    <row r="15" spans="1:32">
       <c r="A15" s="1">
         <v>50225</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D15">
         <v>202107</v>
@@ -2594,10 +1874,10 @@
         <v>1108230369</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H15" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I15">
         <v>4817044000</v>
@@ -2606,7 +1886,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K15" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L15">
         <v>73004821</v>
@@ -2618,117 +1898,69 @@
         <v>53878.09667896679</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>2.536956070202542</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>9.383192350954465</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>3.353268058009484</v>
       </c>
       <c r="R15">
-        <v>41.1243698377125</v>
+        <v>2.849819821625205</v>
       </c>
       <c r="S15">
-        <v>10.2291359272013</v>
+        <v>25.87548427205924</v>
       </c>
       <c r="T15">
-        <v>16.96416089507294</v>
+        <v>1.451813976367396</v>
       </c>
       <c r="U15">
-        <v>16.94536668407146</v>
+        <v>3.922187449784994</v>
       </c>
       <c r="V15">
-        <v>14.73765055036571</v>
+        <v>36.55102101079051</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>8.1888568013885</v>
       </c>
       <c r="X15">
-        <v>23.73373794793634</v>
+        <v>5.887400188817668</v>
       </c>
       <c r="Y15">
-        <v>35.47143797202105</v>
+        <v>0.2701670617067878</v>
       </c>
       <c r="Z15">
-        <v>40.79482408004261</v>
+        <v>0.7895457576698942</v>
       </c>
       <c r="AA15">
         <v>0</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>9.79556710987621</v>
       </c>
       <c r="AC15">
-        <v>0</v>
+        <v>63.45710840836113</v>
       </c>
       <c r="AD15">
-        <v>0</v>
+        <v>9.459558874337901</v>
       </c>
       <c r="AE15">
-        <v>2.536956070202542</v>
+        <v>1.629031455881523</v>
       </c>
       <c r="AF15">
-        <v>9.383192350954465</v>
-      </c>
-      <c r="AG15">
-        <v>3.353268058009484</v>
-      </c>
-      <c r="AH15">
-        <v>2.849819821625205</v>
-      </c>
-      <c r="AI15">
-        <v>25.87548427205924</v>
-      </c>
-      <c r="AJ15">
-        <v>1.451813976367396</v>
-      </c>
-      <c r="AK15">
-        <v>3.922187449784994</v>
-      </c>
-      <c r="AL15">
-        <v>36.55102101079051</v>
-      </c>
-      <c r="AM15">
-        <v>8.1888568013885</v>
-      </c>
-      <c r="AN15">
-        <v>5.887400188817668</v>
-      </c>
-      <c r="AO15">
-        <v>0.2701670617067878</v>
-      </c>
-      <c r="AP15">
-        <v>0.7895457576698942</v>
-      </c>
-      <c r="AQ15">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>9.79556710987621</v>
-      </c>
-      <c r="AS15">
-        <v>63.45710840836113</v>
-      </c>
-      <c r="AT15">
-        <v>9.459558874337901</v>
-      </c>
-      <c r="AU15">
-        <v>1.629031455881523</v>
-      </c>
-      <c r="AV15">
         <v>14.58902133216654</v>
       </c>
     </row>
-    <row r="16" spans="1:48">
+    <row r="16" spans="1:32">
       <c r="A16" s="1">
         <v>53051</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D16">
         <v>202108</v>
@@ -2740,10 +1972,10 @@
         <v>1108230369</v>
       </c>
       <c r="G16" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I16">
         <v>4817044000</v>
@@ -2752,7 +1984,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K16" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L16">
         <v>78596976</v>
@@ -2764,117 +1996,69 @@
         <v>50675.0328820116</v>
       </c>
       <c r="O16">
-        <v>91.81276262613463</v>
+        <v>3.473879916448694</v>
       </c>
       <c r="P16">
-        <v>8.187237373865376</v>
+        <v>10.74555482020071</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>4.96</v>
       </c>
       <c r="R16">
-        <v>22.06633226805062</v>
+        <v>3.073380407154596</v>
       </c>
       <c r="S16">
-        <v>27.65402775610604</v>
+        <v>26.93066335338398</v>
       </c>
       <c r="T16">
-        <v>14.38724920103796</v>
+        <v>0.3828767206005483</v>
       </c>
       <c r="U16">
-        <v>14.71802838521421</v>
+        <v>7.014415611867816</v>
       </c>
       <c r="V16">
-        <v>12.97765827021131</v>
+        <v>18.52226311684053</v>
       </c>
       <c r="W16">
-        <v>8.187237373865376</v>
+        <v>14.19250904653125</v>
       </c>
       <c r="X16">
-        <v>28.98468101864377</v>
+        <v>10.70445700697187</v>
       </c>
       <c r="Y16">
-        <v>37.47706414353652</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>33.53825483781971</v>
+        <v>1.586542716223586</v>
       </c>
       <c r="AA16">
         <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>20.25300264223906</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>38.37113920833291</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>6.712481214926131</v>
       </c>
       <c r="AE16">
-        <v>3.473879916448694</v>
+        <v>2.073925488812699</v>
       </c>
       <c r="AF16">
-        <v>10.74555482020071</v>
-      </c>
-      <c r="AG16">
-        <v>4.96</v>
-      </c>
-      <c r="AH16">
-        <v>3.073380407154596</v>
-      </c>
-      <c r="AI16">
-        <v>26.93066335338398</v>
-      </c>
-      <c r="AJ16">
-        <v>0.3828767206005483</v>
-      </c>
-      <c r="AK16">
-        <v>7.014415611867816</v>
-      </c>
-      <c r="AL16">
-        <v>18.52226311684053</v>
-      </c>
-      <c r="AM16">
-        <v>14.19250904653125</v>
-      </c>
-      <c r="AN16">
-        <v>10.70445700697187</v>
-      </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>1.586542716223586</v>
-      </c>
-      <c r="AQ16">
-        <v>0</v>
-      </c>
-      <c r="AR16">
-        <v>20.25300264223906</v>
-      </c>
-      <c r="AS16">
-        <v>38.37113920833291</v>
-      </c>
-      <c r="AT16">
-        <v>6.712481214926131</v>
-      </c>
-      <c r="AU16">
-        <v>2.073925488812699</v>
-      </c>
-      <c r="AV16">
         <v>31.01184222049459</v>
       </c>
     </row>
-    <row r="17" spans="1:48">
+    <row r="17" spans="1:32">
       <c r="A17" s="1">
         <v>55883</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>202109</v>
@@ -2886,10 +2070,10 @@
         <v>1108230369</v>
       </c>
       <c r="G17" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I17">
         <v>4817044000</v>
@@ -2898,7 +2082,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K17" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L17">
         <v>87325658</v>
@@ -2910,117 +2094,69 @@
         <v>59203.83593220339</v>
       </c>
       <c r="O17">
-        <v>62.65059790170719</v>
+        <v>6.805577104268713</v>
       </c>
       <c r="P17">
-        <v>37.34940209829281</v>
+        <v>1.240957746691127</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>2.751149083125145</v>
       </c>
       <c r="R17">
-        <v>8.77291909303449</v>
+        <v>2.291618139310213</v>
       </c>
       <c r="S17">
-        <v>15.8232185761486</v>
+        <v>4.932309678788793</v>
       </c>
       <c r="T17">
-        <v>18.35793989047297</v>
+        <v>0.355187176946322</v>
       </c>
       <c r="U17">
-        <v>11.25401932682832</v>
+        <v>3.059541391832398</v>
       </c>
       <c r="V17">
-        <v>8.451666988641527</v>
+        <v>21.25506452135751</v>
       </c>
       <c r="W17">
-        <v>37.34940209829281</v>
+        <v>36.00584969860748</v>
       </c>
       <c r="X17">
-        <v>56.68106076795893</v>
+        <v>21.31274545907229</v>
       </c>
       <c r="Y17">
-        <v>31.81001663795078</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>11.50892259409027</v>
+        <v>1.997089225940903</v>
       </c>
       <c r="AA17">
         <v>0</v>
       </c>
       <c r="AB17">
-        <v>0</v>
+        <v>6.653867456229187</v>
       </c>
       <c r="AC17">
-        <v>0</v>
+        <v>26.85562082818775</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>20.89083296206024</v>
       </c>
       <c r="AE17">
-        <v>6.805577104268713</v>
+        <v>29.56351399837148</v>
       </c>
       <c r="AF17">
-        <v>1.240957746691127</v>
-      </c>
-      <c r="AG17">
-        <v>2.751149083125145</v>
-      </c>
-      <c r="AH17">
-        <v>2.291618139310213</v>
-      </c>
-      <c r="AI17">
-        <v>4.932309678788793</v>
-      </c>
-      <c r="AJ17">
-        <v>0.355187176946322</v>
-      </c>
-      <c r="AK17">
-        <v>3.059541391832398</v>
-      </c>
-      <c r="AL17">
-        <v>21.25506452135751</v>
-      </c>
-      <c r="AM17">
-        <v>36.00584969860748</v>
-      </c>
-      <c r="AN17">
-        <v>21.31274545907229</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1.997089225940903</v>
-      </c>
-      <c r="AQ17">
-        <v>0</v>
-      </c>
-      <c r="AR17">
-        <v>6.653867456229187</v>
-      </c>
-      <c r="AS17">
-        <v>26.85562082818775</v>
-      </c>
-      <c r="AT17">
-        <v>20.89083296206024</v>
-      </c>
-      <c r="AU17">
-        <v>29.56351399837148</v>
-      </c>
-      <c r="AV17">
         <v>14.03907552921044</v>
       </c>
     </row>
-    <row r="18" spans="1:48">
+    <row r="18" spans="1:32">
       <c r="A18" s="1">
         <v>58708</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D18">
         <v>202110</v>
@@ -3032,10 +2168,10 @@
         <v>1108230369</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I18">
         <v>4817044000</v>
@@ -3044,7 +2180,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K18" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L18">
         <v>65936474</v>
@@ -3056,117 +2192,69 @@
         <v>43322.25624178712</v>
       </c>
       <c r="O18">
-        <v>87.16529098689749</v>
+        <v>8.989492737813066</v>
       </c>
       <c r="P18">
-        <v>12.83470901310252</v>
+        <v>9.706136348146249</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>9.817709233435806</v>
       </c>
       <c r="R18">
-        <v>7.582484757829181</v>
+        <v>4.177592838676815</v>
       </c>
       <c r="S18">
-        <v>13.78381232593663</v>
+        <v>10.69397450400517</v>
       </c>
       <c r="T18">
-        <v>9.517369691924987</v>
+        <v>0.3917169930864062</v>
       </c>
       <c r="U18">
-        <v>28.0096563583306</v>
+        <v>4.341373351417002</v>
       </c>
       <c r="V18">
-        <v>28.27196785287609</v>
+        <v>15.92378051274019</v>
       </c>
       <c r="W18">
-        <v>12.83470901310252</v>
+        <v>10.94545316496602</v>
       </c>
       <c r="X18">
-        <v>48.00666578076346</v>
+        <v>24.99377086997403</v>
       </c>
       <c r="Y18">
-        <v>32.89413379717575</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>19.09920042206079</v>
+        <v>1.470171820834702</v>
       </c>
       <c r="AA18">
         <v>0</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>16.21756368318997</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>40.30046702148496</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>21.00973949744416</v>
       </c>
       <c r="AE18">
-        <v>8.989492737813066</v>
+        <v>1.16710918936915</v>
       </c>
       <c r="AF18">
-        <v>9.706136348146249</v>
-      </c>
-      <c r="AG18">
-        <v>9.817709233435806</v>
-      </c>
-      <c r="AH18">
-        <v>4.177592838676815</v>
-      </c>
-      <c r="AI18">
-        <v>10.69397450400517</v>
-      </c>
-      <c r="AJ18">
-        <v>0.3917169930864062</v>
-      </c>
-      <c r="AK18">
-        <v>4.341373351417002</v>
-      </c>
-      <c r="AL18">
-        <v>15.92378051274019</v>
-      </c>
-      <c r="AM18">
-        <v>10.94545316496602</v>
-      </c>
-      <c r="AN18">
-        <v>24.99377086997403</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1.470171820834702</v>
-      </c>
-      <c r="AQ18">
-        <v>0</v>
-      </c>
-      <c r="AR18">
-        <v>16.21756368318997</v>
-      </c>
-      <c r="AS18">
-        <v>40.30046702148496</v>
-      </c>
-      <c r="AT18">
-        <v>21.00973949744416</v>
-      </c>
-      <c r="AU18">
-        <v>1.16710918936915</v>
-      </c>
-      <c r="AV18">
         <v>19.84444851054668</v>
       </c>
     </row>
-    <row r="19" spans="1:48">
+    <row r="19" spans="1:32">
       <c r="A19" s="1">
         <v>61546</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D19">
         <v>202111</v>
@@ -3178,10 +2266,10 @@
         <v>1108230369</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H19" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I19">
         <v>4817044000</v>
@@ -3190,7 +2278,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K19" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L19">
         <v>119277730</v>
@@ -3202,117 +2290,69 @@
         <v>66155.14697726013</v>
       </c>
       <c r="O19">
-        <v>85.20308346562263</v>
+        <v>11.37885859447526</v>
       </c>
       <c r="P19">
-        <v>14.79691653437737</v>
+        <v>9.15989210777234</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>2.225107879987321</v>
       </c>
       <c r="R19">
-        <v>7.202603617540341</v>
+        <v>21.56849802146638</v>
       </c>
       <c r="S19">
-        <v>28.56624361856987</v>
+        <v>9.451800117255752</v>
       </c>
       <c r="T19">
-        <v>15.59235093675911</v>
+        <v>3.294060187094439</v>
       </c>
       <c r="U19">
-        <v>17.19773708444988</v>
+        <v>3.559469051515316</v>
       </c>
       <c r="V19">
-        <v>16.6345599061954</v>
+        <v>19.00197615967373</v>
       </c>
       <c r="W19">
-        <v>14.79691653437737</v>
+        <v>7.738957974049304</v>
       </c>
       <c r="X19">
-        <v>24.89975865310314</v>
+        <v>12.6222033024941</v>
       </c>
       <c r="Y19">
-        <v>52.75398636996194</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>22.34584327904295</v>
+        <v>4.541300398154795</v>
       </c>
       <c r="AA19">
         <v>0</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>25.42969334862426</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>31.01666665034621</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>25.26871665163313</v>
       </c>
       <c r="AE19">
-        <v>11.37885859447526</v>
+        <v>1.873716639392785</v>
       </c>
       <c r="AF19">
-        <v>9.15989210777234</v>
-      </c>
-      <c r="AG19">
-        <v>2.225107879987321</v>
-      </c>
-      <c r="AH19">
-        <v>21.56849802146638</v>
-      </c>
-      <c r="AI19">
-        <v>9.451800117255752</v>
-      </c>
-      <c r="AJ19">
-        <v>3.294060187094439</v>
-      </c>
-      <c r="AK19">
-        <v>3.559469051515316</v>
-      </c>
-      <c r="AL19">
-        <v>19.00197615967373</v>
-      </c>
-      <c r="AM19">
-        <v>7.738957974049304</v>
-      </c>
-      <c r="AN19">
-        <v>12.6222033024941</v>
-      </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>4.541300398154795</v>
-      </c>
-      <c r="AQ19">
-        <v>0</v>
-      </c>
-      <c r="AR19">
-        <v>25.42969334862426</v>
-      </c>
-      <c r="AS19">
-        <v>31.01666665034621</v>
-      </c>
-      <c r="AT19">
-        <v>25.26871665163313</v>
-      </c>
-      <c r="AU19">
-        <v>1.873716639392785</v>
-      </c>
-      <c r="AV19">
         <v>11.86072970763276</v>
       </c>
     </row>
-    <row r="20" spans="1:48">
+    <row r="20" spans="1:32">
       <c r="A20" s="1">
         <v>64378</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>202112</v>
@@ -3324,10 +2364,10 @@
         <v>1108230369</v>
       </c>
       <c r="G20" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H20" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I20">
         <v>4817044000</v>
@@ -3336,7 +2376,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K20" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L20">
         <v>161888738</v>
@@ -3348,117 +2388,69 @@
         <v>108142.1095524382</v>
       </c>
       <c r="O20">
-        <v>90.11926143386205</v>
+        <v>1.052665803473</v>
       </c>
       <c r="P20">
-        <v>9.880738566137936</v>
+        <v>8.67352501481604</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1.998054377692413</v>
       </c>
       <c r="R20">
-        <v>19.6483869234931</v>
+        <v>3.48745054754828</v>
       </c>
       <c r="S20">
-        <v>10.67044460263814</v>
+        <v>23.46303693157457</v>
       </c>
       <c r="T20">
-        <v>20.40297936018255</v>
+        <v>1.98805927599485</v>
       </c>
       <c r="U20">
-        <v>24.760932081761</v>
+        <v>1.945065220904989</v>
       </c>
       <c r="V20">
-        <v>14.63651846578728</v>
+        <v>11.10655704808817</v>
       </c>
       <c r="W20">
-        <v>9.880738566137936</v>
+        <v>42.84089229122287</v>
       </c>
       <c r="X20">
-        <v>15.90247718615238</v>
+        <v>3.454567945177262</v>
       </c>
       <c r="Y20">
-        <v>50.76346744342401</v>
+        <v>0.01380978582957389</v>
       </c>
       <c r="Z20">
-        <v>33.33405537042361</v>
+        <v>0.02435544046306668</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>11.61559188644734</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>31.62757179687199</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>7.33872067753101</v>
       </c>
       <c r="AE20">
-        <v>1.052665803473</v>
+        <v>24.44915427532705</v>
       </c>
       <c r="AF20">
-        <v>8.67352501481604</v>
-      </c>
-      <c r="AG20">
-        <v>1.998054377692413</v>
-      </c>
-      <c r="AH20">
-        <v>3.48745054754828</v>
-      </c>
-      <c r="AI20">
-        <v>23.46303693157457</v>
-      </c>
-      <c r="AJ20">
-        <v>1.98805927599485</v>
-      </c>
-      <c r="AK20">
-        <v>1.945065220904989</v>
-      </c>
-      <c r="AL20">
-        <v>11.10655704808817</v>
-      </c>
-      <c r="AM20">
-        <v>42.84089229122287</v>
-      </c>
-      <c r="AN20">
-        <v>3.454567945177262</v>
-      </c>
-      <c r="AO20">
-        <v>0.01380978582957389</v>
-      </c>
-      <c r="AP20">
-        <v>0.02435544046306668</v>
-      </c>
-      <c r="AQ20">
-        <v>0</v>
-      </c>
-      <c r="AR20">
-        <v>11.61559188644734</v>
-      </c>
-      <c r="AS20">
-        <v>31.62757179687199</v>
-      </c>
-      <c r="AT20">
-        <v>7.33872067753101</v>
-      </c>
-      <c r="AU20">
-        <v>24.44915427532705</v>
-      </c>
-      <c r="AV20">
         <v>24.92092168103751</v>
       </c>
     </row>
-    <row r="21" spans="1:48">
+    <row r="21" spans="1:32">
       <c r="A21" s="1">
         <v>67211</v>
       </c>
       <c r="B21" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D21">
         <v>202201</v>
@@ -3470,10 +2462,10 @@
         <v>1108230369</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H21" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I21">
         <v>4817044000</v>
@@ -3482,7 +2474,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K21" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L21">
         <v>98954154</v>
@@ -3494,117 +2486,69 @@
         <v>72334.90789473684</v>
       </c>
       <c r="O21">
-        <v>83.42490159938106</v>
+        <v>1.564194336500517</v>
       </c>
       <c r="P21">
-        <v>16.57509840061894</v>
+        <v>7.602102081535659</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>5.341070110103716</v>
       </c>
       <c r="R21">
-        <v>10.88023616148545</v>
+        <v>2.816610078440972</v>
       </c>
       <c r="S21">
-        <v>8.967616234887926</v>
+        <v>21.59778966429241</v>
       </c>
       <c r="T21">
-        <v>11.69750675914019</v>
+        <v>1.642533822683179</v>
       </c>
       <c r="U21">
-        <v>40.80308858484101</v>
+        <v>0.8020147560455118</v>
       </c>
       <c r="V21">
-        <v>11.06691019358318</v>
+        <v>41.72962610463023</v>
       </c>
       <c r="W21">
-        <v>16.57509840061894</v>
+        <v>13.44833948618266</v>
       </c>
       <c r="X21">
-        <v>33.19215498704582</v>
+        <v>3.464350555915015</v>
       </c>
       <c r="Y21">
-        <v>50.33284870466378</v>
+        <v>0.0296617461860166</v>
       </c>
       <c r="Z21">
-        <v>16.4749963082904</v>
+        <v>0.1523210330311146</v>
       </c>
       <c r="AA21">
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>20.62785361794917</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>17.86600612946476</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>18.58205289471729</v>
       </c>
       <c r="AE21">
-        <v>1.564194336500517</v>
+        <v>33.74272695919365</v>
       </c>
       <c r="AF21">
-        <v>7.602102081535659</v>
-      </c>
-      <c r="AG21">
-        <v>5.341070110103716</v>
-      </c>
-      <c r="AH21">
-        <v>2.816610078440972</v>
-      </c>
-      <c r="AI21">
-        <v>21.59778966429241</v>
-      </c>
-      <c r="AJ21">
-        <v>1.642533822683179</v>
-      </c>
-      <c r="AK21">
-        <v>0.8020147560455118</v>
-      </c>
-      <c r="AL21">
-        <v>41.72962610463023</v>
-      </c>
-      <c r="AM21">
-        <v>13.44833948618266</v>
-      </c>
-      <c r="AN21">
-        <v>3.464350555915015</v>
-      </c>
-      <c r="AO21">
-        <v>0.0296617461860166</v>
-      </c>
-      <c r="AP21">
-        <v>0.1523210330311146</v>
-      </c>
-      <c r="AQ21">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>20.62785361794917</v>
-      </c>
-      <c r="AS21">
-        <v>17.86600612946476</v>
-      </c>
-      <c r="AT21">
-        <v>18.58205289471729</v>
-      </c>
-      <c r="AU21">
-        <v>33.74272695919365</v>
-      </c>
-      <c r="AV21">
         <v>8.999377619457997</v>
       </c>
     </row>
-    <row r="22" spans="1:48">
+    <row r="22" spans="1:32">
       <c r="A22" s="1">
         <v>70048</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>202202</v>
@@ -3616,10 +2560,10 @@
         <v>1108230369</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H22" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I22">
         <v>4817044000</v>
@@ -3628,7 +2572,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K22" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L22">
         <v>70544220</v>
@@ -3640,117 +2584,69 @@
         <v>53160.67822155237</v>
       </c>
       <c r="O22">
-        <v>93.94563817716038</v>
+        <v>1.493263215327918</v>
       </c>
       <c r="P22">
-        <v>6.054361822839631</v>
+        <v>8.81613953120468</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>11.74683814832739</v>
       </c>
       <c r="R22">
-        <v>33.02145410112976</v>
+        <v>6.075193449725576</v>
       </c>
       <c r="S22">
-        <v>3.800495168987622</v>
+        <v>24.24866677879492</v>
       </c>
       <c r="T22">
-        <v>9.205974394783867</v>
+        <v>0.7839999038900706</v>
       </c>
       <c r="U22">
-        <v>19.27501594319138</v>
+        <v>13.07414624486599</v>
       </c>
       <c r="V22">
-        <v>28.65269856906775</v>
+        <v>18.74553681350506</v>
       </c>
       <c r="W22">
-        <v>6.054361822839631</v>
+        <v>10.74146671151797</v>
       </c>
       <c r="X22">
-        <v>30.97071741256761</v>
+        <v>4.294107933151717</v>
       </c>
       <c r="Y22">
-        <v>46.84801908377469</v>
+        <v>0.02693332692600471</v>
       </c>
       <c r="Z22">
-        <v>22.18190477334642</v>
+        <v>0</v>
       </c>
       <c r="AA22">
         <v>0</v>
       </c>
       <c r="AB22">
-        <v>0</v>
+        <v>11.48703445030649</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>42.45134607186812</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>17.10575881681022</v>
       </c>
       <c r="AE22">
-        <v>1.493263215327918</v>
+        <v>22.67048922420575</v>
       </c>
       <c r="AF22">
-        <v>8.81613953120468</v>
-      </c>
-      <c r="AG22">
-        <v>11.74683814832739</v>
-      </c>
-      <c r="AH22">
-        <v>6.075193449725576</v>
-      </c>
-      <c r="AI22">
-        <v>24.24866677879492</v>
-      </c>
-      <c r="AJ22">
-        <v>0.7839999038900706</v>
-      </c>
-      <c r="AK22">
-        <v>13.07414624486599</v>
-      </c>
-      <c r="AL22">
-        <v>18.74553681350506</v>
-      </c>
-      <c r="AM22">
-        <v>10.74146671151797</v>
-      </c>
-      <c r="AN22">
-        <v>4.294107933151717</v>
-      </c>
-      <c r="AO22">
-        <v>0.02693332692600471</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
-      </c>
-      <c r="AQ22">
-        <v>0</v>
-      </c>
-      <c r="AR22">
-        <v>11.48703445030649</v>
-      </c>
-      <c r="AS22">
-        <v>42.45134607186812</v>
-      </c>
-      <c r="AT22">
-        <v>17.10575881681022</v>
-      </c>
-      <c r="AU22">
-        <v>22.67048922420575</v>
-      </c>
-      <c r="AV22">
         <v>6.249720649260847</v>
       </c>
     </row>
-    <row r="23" spans="1:48">
+    <row r="23" spans="1:32">
       <c r="A23" s="1">
         <v>72887</v>
       </c>
       <c r="B23" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>202203</v>
@@ -3762,10 +2658,10 @@
         <v>1108230369</v>
       </c>
       <c r="G23" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H23" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I23">
         <v>4817044000</v>
@@ -3774,7 +2670,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K23" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L23">
         <v>77452126</v>
@@ -3786,117 +2682,69 @@
         <v>45161.58950437318</v>
       </c>
       <c r="O23">
-        <v>87.98766603992252</v>
+        <v>14.12804095112896</v>
       </c>
       <c r="P23">
-        <v>12.01233396007748</v>
+        <v>7.89805641216356</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>4.627379215387839</v>
       </c>
       <c r="R23">
-        <v>29.30314328686084</v>
+        <v>3.82899310523768</v>
       </c>
       <c r="S23">
-        <v>5.827132840356119</v>
+        <v>21.67463816796972</v>
       </c>
       <c r="T23">
-        <v>7.417967155607838</v>
+        <v>12.22516543393528</v>
       </c>
       <c r="U23">
-        <v>27.16547607705436</v>
+        <v>2.0624470352176</v>
       </c>
       <c r="V23">
-        <v>18.27459295474988</v>
+        <v>23.70233989367832</v>
       </c>
       <c r="W23">
-        <v>12.01233396007748</v>
+        <v>7.229437048248359</v>
       </c>
       <c r="X23">
-        <v>43.39289574194517</v>
+        <v>2.63350273703268</v>
       </c>
       <c r="Y23">
-        <v>37.56222447877028</v>
+        <v>0.0467686264674</v>
       </c>
       <c r="Z23">
-        <v>19.04423350457804</v>
+        <v>12.41322660981572</v>
       </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>12.43467987153767</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>40.46636513295969</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>4.372668421780959</v>
       </c>
       <c r="AE23">
-        <v>14.12804095112896</v>
+        <v>22.29187572591616</v>
       </c>
       <c r="AF23">
-        <v>7.89805641216356</v>
-      </c>
-      <c r="AG23">
-        <v>4.627379215387839</v>
-      </c>
-      <c r="AH23">
-        <v>3.82899310523768</v>
-      </c>
-      <c r="AI23">
-        <v>21.67463816796972</v>
-      </c>
-      <c r="AJ23">
-        <v>12.22516543393528</v>
-      </c>
-      <c r="AK23">
-        <v>2.0624470352176</v>
-      </c>
-      <c r="AL23">
-        <v>23.70233989367832</v>
-      </c>
-      <c r="AM23">
-        <v>7.229437048248359</v>
-      </c>
-      <c r="AN23">
-        <v>2.63350273703268</v>
-      </c>
-      <c r="AO23">
-        <v>0.0467686264674</v>
-      </c>
-      <c r="AP23">
-        <v>12.41322660981572</v>
-      </c>
-      <c r="AQ23">
-        <v>0</v>
-      </c>
-      <c r="AR23">
-        <v>12.43467987153767</v>
-      </c>
-      <c r="AS23">
-        <v>40.46636513295969</v>
-      </c>
-      <c r="AT23">
-        <v>4.372668421780959</v>
-      </c>
-      <c r="AU23">
-        <v>22.29187572591616</v>
-      </c>
-      <c r="AV23">
         <v>7.964415611522401</v>
       </c>
     </row>
-    <row r="24" spans="1:48">
+    <row r="24" spans="1:32">
       <c r="A24" s="1">
         <v>75738</v>
       </c>
       <c r="B24" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>202204</v>
@@ -3908,10 +2756,10 @@
         <v>1108230369</v>
       </c>
       <c r="G24" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H24" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I24">
         <v>4817044000</v>
@@ -3920,7 +2768,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L24">
         <v>93469527</v>
@@ -3932,117 +2780,69 @@
         <v>52363.8806722689</v>
       </c>
       <c r="O24">
-        <v>92.37062638157997</v>
+        <v>2.682454169795895</v>
       </c>
       <c r="P24">
-        <v>7.629373618420043</v>
+        <v>5.750306631700405</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>5.488577425453324</v>
       </c>
       <c r="R24">
-        <v>12.00363196370941</v>
+        <v>6.675608574225481</v>
       </c>
       <c r="S24">
-        <v>6.826234955805437</v>
+        <v>16.23943809312312</v>
       </c>
       <c r="T24">
-        <v>9.445665178021068</v>
+        <v>0.4799486434760711</v>
       </c>
       <c r="U24">
-        <v>23.12503092553363</v>
+        <v>20.98052255233944</v>
       </c>
       <c r="V24">
-        <v>40.96068449281872</v>
+        <v>27.93622859234112</v>
       </c>
       <c r="W24">
-        <v>7.629373618420043</v>
+        <v>9.868969520943443</v>
       </c>
       <c r="X24">
-        <v>17.9341189013399</v>
+        <v>3.908566930910007</v>
       </c>
       <c r="Y24">
-        <v>52.21258725028105</v>
+        <v>0.243850507984276</v>
       </c>
       <c r="Z24">
-        <v>29.85329384837906</v>
+        <v>1.753435915964355</v>
       </c>
       <c r="AA24">
         <v>0</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>10.10573227635997</v>
       </c>
       <c r="AC24">
-        <v>0</v>
+        <v>26.63565993074941</v>
       </c>
       <c r="AD24">
-        <v>0</v>
+        <v>24.77533230996237</v>
       </c>
       <c r="AE24">
-        <v>2.682454169795895</v>
+        <v>2.621863402924892</v>
       </c>
       <c r="AF24">
-        <v>5.750306631700405</v>
-      </c>
-      <c r="AG24">
-        <v>5.488577425453324</v>
-      </c>
-      <c r="AH24">
-        <v>6.675608574225481</v>
-      </c>
-      <c r="AI24">
-        <v>16.23943809312312</v>
-      </c>
-      <c r="AJ24">
-        <v>0.4799486434760711</v>
-      </c>
-      <c r="AK24">
-        <v>20.98052255233944</v>
-      </c>
-      <c r="AL24">
-        <v>27.93622859234112</v>
-      </c>
-      <c r="AM24">
-        <v>9.868969520943443</v>
-      </c>
-      <c r="AN24">
-        <v>3.908566930910007</v>
-      </c>
-      <c r="AO24">
-        <v>0.243850507984276</v>
-      </c>
-      <c r="AP24">
-        <v>1.753435915964355</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>10.10573227635997</v>
-      </c>
-      <c r="AS24">
-        <v>26.63565993074941</v>
-      </c>
-      <c r="AT24">
-        <v>24.77533230996237</v>
-      </c>
-      <c r="AU24">
-        <v>2.621863402924892</v>
-      </c>
-      <c r="AV24">
         <v>33.87350452174643</v>
       </c>
     </row>
-    <row r="25" spans="1:48">
+    <row r="25" spans="1:32">
       <c r="A25" s="1">
         <v>78590</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>202205</v>
@@ -4054,10 +2854,10 @@
         <v>1108230369</v>
       </c>
       <c r="G25" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="H25" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="I25">
         <v>4817044000</v>
@@ -4066,7 +2866,7 @@
         <v>2025.542424242424</v>
       </c>
       <c r="K25" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="L25">
         <v>95644316</v>
@@ -4078,105 +2878,57 @@
         <v>60534.37721518987</v>
       </c>
       <c r="O25">
-        <v>93.01676561595148</v>
+        <v>3.977001005370774</v>
       </c>
       <c r="P25">
-        <v>6.983234384048499</v>
+        <v>2.310359620743171</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>3.353027769993148</v>
       </c>
       <c r="R25">
-        <v>19.93859814345894</v>
+        <v>9.945499323242585</v>
       </c>
       <c r="S25">
-        <v>31.97556383685153</v>
+        <v>19.8852992458015</v>
       </c>
       <c r="T25">
-        <v>8.114015083970072</v>
+        <v>0.6070236703872711</v>
       </c>
       <c r="U25">
-        <v>24.66822239431353</v>
+        <v>0.7968623863649148</v>
       </c>
       <c r="V25">
-        <v>8.320366157357432</v>
+        <v>28.10005666254125</v>
       </c>
       <c r="W25">
-        <v>6.983234384048499</v>
+        <v>24.05252473435013</v>
       </c>
       <c r="X25">
-        <v>29.90625256225368</v>
+        <v>6.972345581205265</v>
       </c>
       <c r="Y25">
-        <v>46.41880955340828</v>
+        <v>0.5744474956567205</v>
       </c>
       <c r="Z25">
-        <v>23.67493788433805</v>
+        <v>0.3138699283499503</v>
       </c>
       <c r="AA25">
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>6.323479365255745</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>50.11167778009935</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>8.466959156778328</v>
       </c>
       <c r="AE25">
-        <v>3.977001005370774</v>
+        <v>2.000992109870909</v>
       </c>
       <c r="AF25">
-        <v>2.310359620743171</v>
-      </c>
-      <c r="AG25">
-        <v>3.353027769993148</v>
-      </c>
-      <c r="AH25">
-        <v>9.945499323242585</v>
-      </c>
-      <c r="AI25">
-        <v>19.8852992458015</v>
-      </c>
-      <c r="AJ25">
-        <v>0.6070236703872711</v>
-      </c>
-      <c r="AK25">
-        <v>0.7968623863649148</v>
-      </c>
-      <c r="AL25">
-        <v>28.10005666254125</v>
-      </c>
-      <c r="AM25">
-        <v>24.05252473435013</v>
-      </c>
-      <c r="AN25">
-        <v>6.972345581205265</v>
-      </c>
-      <c r="AO25">
-        <v>0.5744474956567205</v>
-      </c>
-      <c r="AP25">
-        <v>0.3138699283499503</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>6.323479365255745</v>
-      </c>
-      <c r="AS25">
-        <v>50.11167778009935</v>
-      </c>
-      <c r="AT25">
-        <v>8.466959156778328</v>
-      </c>
-      <c r="AU25">
-        <v>2.000992109870909</v>
-      </c>
-      <c r="AV25">
         <v>32.20857416398901</v>
       </c>
     </row>
